--- a/character1/character1_boxes_location.xlsx
+++ b/character1/character1_boxes_location.xlsx
@@ -462,495 +462,495 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="C2" t="n">
-        <v>1641</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B3" t="n">
-        <v>384</v>
+        <v>959</v>
       </c>
       <c r="C3" t="n">
-        <v>1623</v>
+        <v>175</v>
       </c>
       <c r="D3" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
-        <v>759</v>
+        <v>956</v>
       </c>
       <c r="C4" t="n">
-        <v>1622</v>
+        <v>306</v>
       </c>
       <c r="D4" t="n">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="E4" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B5" t="n">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="C5" t="n">
-        <v>1617</v>
+        <v>468</v>
       </c>
       <c r="D5" t="n">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>569</v>
+        <v>959</v>
       </c>
       <c r="C6" t="n">
-        <v>1613</v>
+        <v>613</v>
       </c>
       <c r="D6" t="n">
+        <v>71</v>
+      </c>
+      <c r="E6" t="n">
         <v>103</v>
-      </c>
-      <c r="E6" t="n">
-        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n">
-        <v>203</v>
+        <v>945</v>
       </c>
       <c r="C7" t="n">
-        <v>1608</v>
+        <v>747</v>
       </c>
       <c r="D7" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E7" t="n">
-        <v>134</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="C8" t="n">
-        <v>1476</v>
+        <v>886</v>
       </c>
       <c r="D8" t="n">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E8" t="n">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>383</v>
+        <v>952</v>
       </c>
       <c r="C9" t="n">
-        <v>1475</v>
+        <v>1009</v>
       </c>
       <c r="D9" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E9" t="n">
-        <v>132</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>948</v>
       </c>
       <c r="C10" t="n">
-        <v>1474</v>
+        <v>1189</v>
       </c>
       <c r="D10" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>199</v>
+        <v>942</v>
       </c>
       <c r="C11" t="n">
-        <v>1471</v>
+        <v>1332</v>
       </c>
       <c r="D11" t="n">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E11" t="n">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>571</v>
+        <v>935</v>
       </c>
       <c r="C12" t="n">
-        <v>1467</v>
+        <v>1477</v>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E12" t="n">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>755</v>
+        <v>943</v>
       </c>
       <c r="C13" t="n">
-        <v>1464</v>
+        <v>1619</v>
       </c>
       <c r="D13" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>70</v>
+      </c>
+      <c r="B14" t="n">
+        <v>773</v>
+      </c>
+      <c r="C14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>22</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1342</v>
-      </c>
       <c r="D14" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E14" t="n">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B15" t="n">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="C15" t="n">
-        <v>1339</v>
+        <v>181</v>
       </c>
       <c r="D15" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E15" t="n">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B16" t="n">
-        <v>582</v>
+        <v>767</v>
       </c>
       <c r="C16" t="n">
-        <v>1335</v>
+        <v>330</v>
       </c>
       <c r="D16" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E16" t="n">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n">
-        <v>217</v>
+        <v>780</v>
       </c>
       <c r="C17" t="n">
-        <v>1333</v>
+        <v>469</v>
       </c>
       <c r="D17" t="n">
         <v>76</v>
       </c>
       <c r="E17" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B18" t="n">
-        <v>940</v>
+        <v>780</v>
       </c>
       <c r="C18" t="n">
-        <v>1331</v>
+        <v>600</v>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E18" t="n">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
-        <v>382</v>
+        <v>780</v>
       </c>
       <c r="C19" t="n">
-        <v>1326</v>
+        <v>753</v>
       </c>
       <c r="D19" t="n">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E19" t="n">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
-        <v>397</v>
+        <v>772</v>
       </c>
       <c r="C20" t="n">
-        <v>1199</v>
+        <v>892</v>
       </c>
       <c r="D20" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E20" t="n">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>574</v>
+        <v>766</v>
       </c>
       <c r="C21" t="n">
-        <v>1189</v>
+        <v>1035</v>
       </c>
       <c r="D21" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E21" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="C22" t="n">
-        <v>1189</v>
+        <v>1174</v>
       </c>
       <c r="D22" t="n">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E22" t="n">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>946</v>
+        <v>768</v>
       </c>
       <c r="C23" t="n">
-        <v>1187</v>
+        <v>1340</v>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E23" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>205</v>
+        <v>756</v>
       </c>
       <c r="C24" t="n">
-        <v>1187</v>
+        <v>1465</v>
       </c>
       <c r="D24" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E24" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C25" t="n">
-        <v>1172</v>
+        <v>1624</v>
       </c>
       <c r="D25" t="n">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E25" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B26" t="n">
-        <v>392</v>
+        <v>594</v>
       </c>
       <c r="C26" t="n">
-        <v>1063</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E26" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B27" t="n">
-        <v>21</v>
+        <v>581</v>
       </c>
       <c r="C27" t="n">
-        <v>1036</v>
+        <v>169</v>
       </c>
       <c r="D27" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E27" t="n">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>764</v>
+        <v>584</v>
       </c>
       <c r="C28" t="n">
-        <v>1034</v>
+        <v>313</v>
       </c>
       <c r="D28" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E28" t="n">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B29" t="n">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C29" t="n">
-        <v>1033</v>
+        <v>611</v>
       </c>
       <c r="D29" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E29" t="n">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B30" t="n">
-        <v>951</v>
+        <v>576</v>
       </c>
       <c r="C30" t="n">
-        <v>1007</v>
+        <v>748</v>
       </c>
       <c r="D30" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" t="n">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31">
@@ -958,251 +958,251 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="C31" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D31" t="n">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="E31" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C32" t="n">
-        <v>907</v>
+        <v>1035</v>
       </c>
       <c r="D32" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32" t="n">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B33" t="n">
-        <v>393</v>
+        <v>575</v>
       </c>
       <c r="C33" t="n">
-        <v>895</v>
+        <v>1190</v>
       </c>
       <c r="D33" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E33" t="n">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>219</v>
+        <v>583</v>
       </c>
       <c r="C34" t="n">
-        <v>892</v>
+        <v>1337</v>
       </c>
       <c r="D34" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E34" t="n">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B35" t="n">
-        <v>771</v>
+        <v>572</v>
       </c>
       <c r="C35" t="n">
-        <v>890</v>
+        <v>1468</v>
       </c>
       <c r="D35" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E35" t="n">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B36" t="n">
-        <v>943</v>
+        <v>570</v>
       </c>
       <c r="C36" t="n">
-        <v>884</v>
+        <v>1614</v>
       </c>
       <c r="D36" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>214</v>
+        <v>400</v>
       </c>
       <c r="C37" t="n">
-        <v>757</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E37" t="n">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="C38" t="n">
-        <v>755</v>
+        <v>175</v>
       </c>
       <c r="D38" t="n">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E38" t="n">
-        <v>105</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B39" t="n">
-        <v>778</v>
+        <v>406</v>
       </c>
       <c r="C39" t="n">
-        <v>752</v>
+        <v>328</v>
       </c>
       <c r="D39" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E39" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="C40" t="n">
-        <v>751</v>
+        <v>481</v>
       </c>
       <c r="D40" t="n">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E40" t="n">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>575</v>
+        <v>394</v>
       </c>
       <c r="C41" t="n">
-        <v>747</v>
+        <v>618</v>
       </c>
       <c r="D41" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E41" t="n">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B42" t="n">
-        <v>944</v>
+        <v>389</v>
       </c>
       <c r="C42" t="n">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="D42" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E42" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B43" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C43" t="n">
-        <v>617</v>
+        <v>896</v>
       </c>
       <c r="D43" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E43" t="n">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B44" t="n">
-        <v>206</v>
+        <v>393</v>
       </c>
       <c r="C44" t="n">
-        <v>615</v>
+        <v>1064</v>
       </c>
       <c r="D44" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E44" t="n">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B45" t="n">
-        <v>30</v>
+        <v>398</v>
       </c>
       <c r="C45" t="n">
-        <v>613</v>
+        <v>1199</v>
       </c>
       <c r="D45" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E45" t="n">
         <v>107</v>
@@ -1210,444 +1210,444 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B46" t="n">
-        <v>958</v>
+        <v>384</v>
       </c>
       <c r="C46" t="n">
-        <v>612</v>
+        <v>1328</v>
       </c>
       <c r="D46" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E46" t="n">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B47" t="n">
-        <v>572</v>
+        <v>385</v>
       </c>
       <c r="C47" t="n">
-        <v>610</v>
+        <v>1477</v>
       </c>
       <c r="D47" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E47" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B48" t="n">
-        <v>778</v>
+        <v>385</v>
       </c>
       <c r="C48" t="n">
-        <v>598</v>
+        <v>1624</v>
       </c>
       <c r="D48" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E48" t="n">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B49" t="n">
-        <v>398</v>
+        <v>208</v>
       </c>
       <c r="C49" t="n">
-        <v>480</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E49" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B50" t="n">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="C50" t="n">
-        <v>478</v>
+        <v>171</v>
       </c>
       <c r="D50" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="E50" t="n">
-        <v>78</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B51" t="n">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C51" t="n">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="D51" t="n">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E51" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>779</v>
+        <v>224</v>
       </c>
       <c r="C52" t="n">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="D52" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E52" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B53" t="n">
-        <v>946</v>
+        <v>207</v>
       </c>
       <c r="C53" t="n">
-        <v>467</v>
+        <v>616</v>
       </c>
       <c r="D53" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E53" t="n">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B54" t="n">
-        <v>765</v>
+        <v>216</v>
       </c>
       <c r="C54" t="n">
-        <v>329</v>
+        <v>758</v>
       </c>
       <c r="D54" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E54" t="n">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B55" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C55" t="n">
-        <v>327</v>
+        <v>893</v>
       </c>
       <c r="D55" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E55" t="n">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B56" t="n">
-        <v>404</v>
+        <v>206</v>
       </c>
       <c r="C56" t="n">
-        <v>326</v>
+        <v>1188</v>
       </c>
       <c r="D56" t="n">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E56" t="n">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B57" t="n">
-        <v>582</v>
+        <v>218</v>
       </c>
       <c r="C57" t="n">
-        <v>311</v>
+        <v>1334</v>
       </c>
       <c r="D57" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57" t="n">
-        <v>150</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B58" t="n">
-        <v>954</v>
+        <v>201</v>
       </c>
       <c r="C58" t="n">
-        <v>305</v>
+        <v>1472</v>
       </c>
       <c r="D58" t="n">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E58" t="n">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B59" t="n">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="C59" t="n">
-        <v>305</v>
+        <v>1611</v>
       </c>
       <c r="D59" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E59" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B60" t="n">
-        <v>775</v>
+        <v>27</v>
       </c>
       <c r="C60" t="n">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="D60" t="n">
+        <v>80</v>
+      </c>
+      <c r="E60" t="n">
         <v>86</v>
-      </c>
-      <c r="E60" t="n">
-        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n">
-        <v>407</v>
+        <v>28</v>
       </c>
       <c r="C61" t="n">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D61" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E61" t="n">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B62" t="n">
-        <v>958</v>
+        <v>31</v>
       </c>
       <c r="C62" t="n">
-        <v>173</v>
+        <v>307</v>
       </c>
       <c r="D62" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E62" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B63" t="n">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="C63" t="n">
-        <v>170</v>
+        <v>479</v>
       </c>
       <c r="D63" t="n">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="E63" t="n">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B64" t="n">
-        <v>579</v>
+        <v>31</v>
       </c>
       <c r="C64" t="n">
-        <v>168</v>
+        <v>614</v>
       </c>
       <c r="D64" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E64" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B65" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C65" t="n">
-        <v>165</v>
+        <v>753</v>
       </c>
       <c r="D65" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E65" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B66" t="n">
-        <v>399</v>
+        <v>21</v>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>909</v>
       </c>
       <c r="D66" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E66" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B67" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C67" t="n">
-        <v>28</v>
+        <v>1038</v>
       </c>
       <c r="D67" t="n">
         <v>83</v>
       </c>
       <c r="E67" t="n">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B68" t="n">
-        <v>592</v>
+        <v>21</v>
       </c>
       <c r="C68" t="n">
-        <v>27</v>
+        <v>1191</v>
       </c>
       <c r="D68" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E68" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B69" t="n">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>27</v>
+        <v>1343</v>
       </c>
       <c r="D69" t="n">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E69" t="n">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
+        <v>9</v>
+      </c>
+      <c r="B70" t="n">
+        <v>27</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1476</v>
+      </c>
+      <c r="D70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" t="n">
-        <v>958</v>
-      </c>
-      <c r="C70" t="n">
-        <v>12</v>
-      </c>
-      <c r="D70" t="n">
-        <v>99</v>
-      </c>
       <c r="E70" t="n">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>772</v>
+        <v>20</v>
       </c>
       <c r="C71" t="n">
-        <v>11</v>
+        <v>1643</v>
       </c>
       <c r="D71" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E71" t="n">
-        <v>153</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
